--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>6778.76</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27418.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6047.38</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2246</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19371.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46300.14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5924.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17182.11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3250.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3979.41</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2773.86</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1981.89</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5010.06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>26847.77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3623.34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3190.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>14005.02</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14144.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>52881.53</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2507.03</v>
+      </c>
+      <c r="V11" t="n">
+        <v>44661.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9080.99</v>
+      </c>
+      <c r="X11" t="n">
+        <v>123888.9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>51949.29</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3457.55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26353.33</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10554.26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12291.73</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5927.98</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>828485.36</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>84418.42</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>31031.82</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9234.73</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9006.52</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1355.56</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>24195.39</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>20241.04</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>40206.58</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3609.99</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9412.540000000001</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>41669.7</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>7248.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>29901.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6452.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>830.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21540.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50427.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6811.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18833.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3376.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4104.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3435.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1981.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5266.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>29357.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3829.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3453.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>14795.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15759.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>59354.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2008.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>44449.6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9705.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>130935</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>64660.7</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3445.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29608.8</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10670.2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12785.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5817.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>882994.2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>91753.8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>31734.2</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9472.9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9728</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1441.6</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>22338.2</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12158.4</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>43802.9</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4234.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10883.9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>44538.7</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>7304.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
